--- a/GameOct18/quiz_ru.xlsx
+++ b/GameOct18/quiz_ru.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
   </bookViews>
   <sheets>
-    <sheet name="quiz_en" sheetId="1" r:id="rId1"/>
+    <sheet name="quiz_ru" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -946,7 +946,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GameOct18/quiz_ru.xlsx
+++ b/GameOct18/quiz_ru.xlsx
@@ -60,12 +60,6 @@
     <t>Сколько жетонов Вы получите, если предложение игрока 1 будет отклонено?</t>
   </si>
   <si>
-    <t>Какое максимальное количество жетонов Вы можете получить для оплаты в течение эксперимента?</t>
-  </si>
-  <si>
-    <t>Какое минимальное количество жетонов Вы можете получить для оплаты в течение эксперимента?</t>
-  </si>
-  <si>
     <t>В игре 1 игрок 2 видит предложение игрока 1 до или после того, как сделает выбор?</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>Тот факт, что игрок 1 делает два выбора, означает ровно это</t>
+  </si>
+  <si>
+    <t>Какое максимальное количество жетонов Вы можете получить для оплаты в течение эксперимента (не считая опроса)?</t>
+  </si>
+  <si>
+    <t>Какое минимальное количество жетонов Вы можете получить для оплаты в течение эксперимента (не считая опроса)?</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,20 +1003,20 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>D2</f>
         <v>Нет</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,20 +1027,20 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>D3</f>
         <v>Ваш партнёр будет выбираться случайным образом перед каждой игрой</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1062,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1076,13 +1076,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1090,23 +1090,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>D7</f>
         <v>После</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1114,23 +1114,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>D8</f>
         <v>Нет</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1138,13 +1138,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1164,20 +1164,20 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>G10</f>
         <v>1 или 12 в зависимости от первого решения</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1185,23 +1185,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>C11</f>
         <v>Да</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
